--- a/io 分配表-mcu1.1.0.xlsx
+++ b/io 分配表-mcu1.1.0.xlsx
@@ -885,10 +885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PG7（64）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RELAY85 (121)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4716,6 +4712,10 @@
   </si>
   <si>
     <t>电源： POWER(双色灯)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH7（64）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5524,8 +5524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5682,7 +5682,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.25">
@@ -5693,7 +5693,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.25">
@@ -5704,7 +5704,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.25">
@@ -5715,7 +5715,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.25">
@@ -5726,7 +5726,7 @@
         <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.25">
@@ -5737,7 +5737,7 @@
         <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.25">
@@ -5748,7 +5748,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.25">
@@ -5770,7 +5770,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40.5">
@@ -5781,7 +5781,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.25">
@@ -5792,7 +5792,7 @@
         <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.25">
@@ -5803,7 +5803,7 @@
         <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.25">
@@ -5814,7 +5814,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.25">
@@ -6472,13 +6472,13 @@
     </row>
     <row r="98" spans="1:3" ht="19.5" customHeight="1">
       <c r="A98" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18.75" customHeight="1">
@@ -6486,10 +6486,10 @@
         <v>194</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20.25">
@@ -6497,10 +6497,10 @@
         <v>195</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20.25">
@@ -6585,10 +6585,10 @@
         <v>119</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -6725,7 +6725,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -6736,7 +6736,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
@@ -6747,7 +6747,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
@@ -6758,7 +6758,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
@@ -6769,7 +6769,7 @@
         <v>82</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
@@ -6780,7 +6780,7 @@
         <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
@@ -6791,7 +6791,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
@@ -6802,7 +6802,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
@@ -6813,7 +6813,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
@@ -6824,7 +6824,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
@@ -6835,7 +6835,7 @@
         <v>88</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
@@ -6846,7 +6846,7 @@
         <v>89</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
@@ -6857,7 +6857,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
@@ -6868,7 +6868,7 @@
         <v>91</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
@@ -6879,7 +6879,7 @@
         <v>92</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
@@ -6890,7 +6890,7 @@
         <v>93</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
@@ -6901,7 +6901,7 @@
         <v>94</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15">
@@ -6912,7 +6912,7 @@
         <v>95</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
@@ -6923,7 +6923,7 @@
         <v>96</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15">
@@ -6934,7 +6934,7 @@
         <v>97</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15">
@@ -6945,7 +6945,7 @@
         <v>98</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
@@ -6956,7 +6956,7 @@
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
@@ -6967,7 +6967,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
@@ -6987,7 +6987,7 @@
         <v>102</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
@@ -7007,7 +7007,7 @@
         <v>104</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15">
@@ -7027,7 +7027,7 @@
         <v>106</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
@@ -7047,7 +7047,7 @@
         <v>108</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
@@ -7067,7 +7067,7 @@
         <v>110</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
@@ -7081,7 +7081,7 @@
     </row>
     <row r="50" spans="1:3" ht="15">
       <c r="A50" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7091,10 +7091,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>263</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15">
@@ -7102,7 +7102,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C52" s="25"/>
     </row>
@@ -7111,7 +7111,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C53" s="25"/>
     </row>
@@ -7120,7 +7120,7 @@
         <v>144</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C54" s="25"/>
     </row>
@@ -7129,7 +7129,7 @@
         <v>146</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C55" s="25"/>
     </row>
@@ -7138,7 +7138,7 @@
         <v>148</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C56" s="25"/>
     </row>
@@ -7147,7 +7147,7 @@
         <v>150</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C57" s="25"/>
     </row>
@@ -7156,7 +7156,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C58" s="25"/>
     </row>
@@ -7165,7 +7165,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C59" s="25"/>
     </row>
@@ -7174,7 +7174,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C60" s="25"/>
     </row>
@@ -7183,7 +7183,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C61" s="25"/>
     </row>
@@ -7192,7 +7192,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C62" s="25"/>
     </row>
@@ -7201,7 +7201,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C63" s="25"/>
     </row>
@@ -7210,7 +7210,7 @@
         <v>161</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C64" s="25"/>
     </row>
@@ -7219,7 +7219,7 @@
         <v>164</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C65" s="25"/>
     </row>
@@ -7228,7 +7228,7 @@
         <v>167</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C66" s="25"/>
     </row>
@@ -7237,7 +7237,7 @@
         <v>168</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C67" s="25"/>
     </row>
@@ -7246,7 +7246,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C68" s="25"/>
     </row>
@@ -7255,7 +7255,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C69" s="25"/>
     </row>
@@ -7264,7 +7264,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C70" s="26"/>
     </row>
@@ -7273,10 +7273,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
@@ -7284,7 +7284,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C72" s="25"/>
     </row>
@@ -7293,7 +7293,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C73" s="25"/>
     </row>
@@ -7302,7 +7302,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C74" s="25"/>
     </row>
@@ -7311,7 +7311,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C75" s="25"/>
     </row>
@@ -7320,7 +7320,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C76" s="25"/>
     </row>
@@ -7329,7 +7329,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C77" s="25"/>
     </row>
@@ -7338,7 +7338,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C78" s="25"/>
     </row>
@@ -7347,7 +7347,7 @@
         <v>175</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C79" s="25"/>
     </row>
@@ -7356,7 +7356,7 @@
         <v>177</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C80" s="25"/>
     </row>
@@ -7365,7 +7365,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C81" s="25"/>
     </row>
@@ -7374,7 +7374,7 @@
         <v>180</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C82" s="25"/>
     </row>
@@ -7383,7 +7383,7 @@
         <v>182</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C83" s="25"/>
     </row>
@@ -7392,7 +7392,7 @@
         <v>16</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C84" s="25"/>
     </row>
@@ -7401,7 +7401,7 @@
         <v>17</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C85" s="25"/>
     </row>
@@ -7410,7 +7410,7 @@
         <v>186</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C86" s="25"/>
     </row>
@@ -7419,7 +7419,7 @@
         <v>18</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C87" s="25"/>
     </row>
@@ -7428,7 +7428,7 @@
         <v>19</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C88" s="25"/>
     </row>
@@ -7437,7 +7437,7 @@
         <v>20</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C89" s="25"/>
     </row>
@@ -7446,7 +7446,7 @@
         <v>21</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C90" s="26"/>
     </row>
@@ -7515,35 +7515,35 @@
     </row>
     <row r="98" spans="1:3" ht="15">
       <c r="A98" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -7580,48 +7580,48 @@
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" ht="14.25">
       <c r="A1" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>424</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7629,10 +7629,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -7644,10 +7644,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -7659,10 +7659,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -7674,10 +7674,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -7689,22 +7689,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>387</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7712,15 +7712,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>80</v>
@@ -7731,15 +7731,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>88</v>
@@ -7750,10 +7750,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -7765,19 +7765,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>392</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>81</v>
@@ -7788,18 +7788,18 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7807,15 +7807,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>82</v>
@@ -7826,10 +7826,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -7841,19 +7841,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>84</v>
@@ -7864,16 +7864,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="11"/>
@@ -7883,16 +7883,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="11"/>
@@ -7902,16 +7902,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="11"/>
@@ -7921,15 +7921,15 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>85</v>
@@ -7940,15 +7940,15 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>29</v>
@@ -7959,10 +7959,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -7974,16 +7974,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="11"/>
@@ -7993,16 +7993,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="11"/>
@@ -8012,19 +8012,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>90</v>
@@ -8035,10 +8035,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -8050,10 +8050,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -8065,10 +8065,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -8080,19 +8080,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>86</v>
@@ -8103,10 +8103,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -8118,10 +8118,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -8133,10 +8133,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -8148,19 +8148,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>87</v>
@@ -8171,10 +8171,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -8186,10 +8186,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -8201,10 +8201,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -8216,19 +8216,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>91</v>
@@ -8239,10 +8239,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -8254,10 +8254,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -8269,10 +8269,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -8284,25 +8284,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>89</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -8310,19 +8310,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>89</v>
@@ -8334,19 +8334,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>83</v>
@@ -8357,16 +8357,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="11"/>
@@ -8376,19 +8376,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>83</v>
@@ -8399,16 +8399,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="11"/>
@@ -8668,13 +8668,13 @@
     <row r="72" spans="1:7">
       <c r="C72" s="9"/>
       <c r="E72" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="C73" s="9"/>
       <c r="E73" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -8683,7 +8683,7 @@
     <row r="75" spans="1:7">
       <c r="C75" s="9"/>
       <c r="E75" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:7">
